--- a/model_F_Luca/ivsc_4cmtct_shedct_param.xlsx
+++ b/model_F_Luca/ivsc_4cmtct_shedct_param.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
   <si>
     <t>Parameter</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>k31M</t>
+  </si>
+  <si>
+    <t>k13DM</t>
+  </si>
+  <si>
+    <t>k31DM</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2440,6 +2446,60 @@
         <v>72</v>
       </c>
     </row>
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2.5627395826851602E-2</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.56103422660683377</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E48"/>
   <conditionalFormatting sqref="F265">

--- a/model_F_Luca/ivsc_4cmtct_shedct_param.xlsx
+++ b/model_F_Luca/ivsc_4cmtct_shedct_param.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t>Parameter</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>k31DM</t>
+  </si>
+  <si>
+    <t>Mtot3ss</t>
+  </si>
+  <si>
+    <t>M03</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1494,9 +1500,9 @@
       <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7">
-        <f>koff</f>
-        <v>3.3871877336213347</v>
+      <c r="F16" s="6">
+        <f>0.00007*3600*24</f>
+        <v>6.048</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>4</v>
@@ -2499,6 +2505,22 @@
         <v>72</v>
       </c>
       <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E48"/>
